--- a/report/reliability/comb/Centro de Educação - CEDU-Graduação (licenciatura)-Presencial.xlsx
+++ b/report/reliability/comb/Centro de Educação - CEDU-Graduação (licenciatura)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7429892785146498</v>
+        <v>0.726674365750813</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7645650998310285</v>
+        <v>0.7624693698410635</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8747783218022326</v>
+        <v>0.8823450749586399</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.212983600331808</v>
+        <v>0.19802508658767706</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.2474586362612374</v>
+        <v>3.2099833580657804</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.02139345863140722</v>
+        <v>0.021553776897042222</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.353030303030303</v>
+        <v>1.772960372960373</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7096925637531464</v>
+        <v>0.6147884685867576</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.17014208205007794</v>
+        <v>0.12165208659697854</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7107748514233583</v>
+        <v>0.7282625161181713</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7268367136568267</v>
+        <v>0.761577956531574</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.84931118559718</v>
+        <v>0.881628702707127</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.19477712311398268</v>
+        <v>0.21022719220140376</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.6608140624860765</v>
+        <v>3.1942430550991796</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02406411653497564</v>
+        <v>0.021882036286146673</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.0444199534230238</v>
+        <v>0.060084867896751264</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.15977401136755706</v>
+        <v>0.14567129968926923</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.712882458655338</v>
+        <v>0.7026095627577607</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7305988553513971</v>
+        <v>0.7374064410750167</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8505489042023022</v>
+        <v>0.8671243545338837</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.19777926136270846</v>
+        <v>0.18963634139688476</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.711936715429936</v>
+        <v>2.808166522034443</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02382738896117279</v>
+        <v>0.02333136629152197</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.043850981535250265</v>
+        <v>0.061341083057283634</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16678192705787323</v>
+        <v>0.10963014168314467</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.717649994304215</v>
+        <v>0.7085503689162997</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.732532062400409</v>
+        <v>0.7425457027335172</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8501771280702723</v>
+        <v>0.8688100192808887</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.19934584420766738</v>
+        <v>0.19377511267037714</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.7387658833973427</v>
+        <v>2.8841845353427207</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.023515645746906656</v>
+        <v>0.02280375092990553</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.043505812465686494</v>
+        <v>0.060638246646452273</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.16400750591943306</v>
+        <v>0.11749067892934556</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7266140813925952</v>
+        <v>0.7087887426636564</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7448108745285559</v>
+        <v>0.7346129984610128</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8565055272268697</v>
+        <v>0.8596658166239584</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.20969416604181365</v>
+        <v>0.18743680123245854</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.918662279015886</v>
+        <v>2.768082062048895</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.022765172109478097</v>
+        <v>0.023287957473859925</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04338774736327719</v>
+        <v>0.04904273464109269</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.17899015116925565</v>
+        <v>0.12165208659697854</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7140001646733991</v>
+        <v>0.6818145156544412</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7467975934826628</v>
+        <v>0.7313605335466601</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8322701431328068</v>
+        <v>0.8579277740608842</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2114361566350215</v>
+        <v>0.18491889306760378</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.949409540590317</v>
+        <v>2.7224612347630996</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.024027507444477333</v>
+        <v>0.025418819277694592</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.043446039066010245</v>
+        <v>0.049116554801994596</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.16678192705787323</v>
+        <v>0.12165208659697854</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7143716741123318</v>
+        <v>0.6819128868011639</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7463808633227299</v>
+        <v>0.7311561705860541</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8322732344040047</v>
+        <v>0.859239440785644</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.21106913792505316</v>
+        <v>0.184762204906816</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.9429201325312357</v>
+        <v>2.719631587527619</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.024011279605419503</v>
+        <v>0.025445894084697235</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04348240362756664</v>
+        <v>0.04944413366452807</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.17350223704228265</v>
+        <v>0.11369065131157119</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7422855774930465</v>
+        <v>0.7214332082197268</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7696191354309991</v>
+        <v>0.7579347973406981</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8612677526372899</v>
+        <v>0.8739287391044683</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.23294906514486163</v>
+        <v>0.2069323810441728</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.3406382811819504</v>
+        <v>3.1311183475117823</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.021352627768602715</v>
+        <v>0.022265816552886987</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04482096559879539</v>
+        <v>0.05598665272481557</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1943681016281702</v>
+        <v>0.15210172635762148</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7593564537945057</v>
+        <v>0.7171221925708164</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7758051435419175</v>
+        <v>0.7532387782931262</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8638037756461127</v>
+        <v>0.8677163004183552</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.23930211355534778</v>
+        <v>0.20279026616704987</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.4604056301664925</v>
+        <v>3.052500603955895</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.019854529027268808</v>
+        <v>0.02186524482928366</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.042234611620412296</v>
+        <v>0.05623555621610377</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.1943681016281702</v>
+        <v>0.15210172635762148</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7301748115636251</v>
+        <v>0.7348409185862966</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7557471803758158</v>
+        <v>0.7606598939953017</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8782277953492301</v>
+        <v>0.877598609713497</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2195326043228503</v>
+        <v>0.2093900609004964</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.0941185511742892</v>
+        <v>3.1781547467868587</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.022701894251226134</v>
+        <v>0.020250198643433824</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05370862962345277</v>
+        <v>0.0562277018156155</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.16678192705787323</v>
+        <v>0.15210172635762148</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.736505082386502</v>
+        <v>0.7096499802315852</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7589550136326909</v>
+        <v>0.7514922301884401</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8796430787297872</v>
+        <v>0.8849305393245128</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.22253809437775704</v>
+        <v>0.20127896807078036</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.148603192584891</v>
+        <v>3.024019050826003</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.022118990590158753</v>
+        <v>0.022969096177749695</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05253086948817498</v>
+        <v>0.06732505729678886</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.17350223704228265</v>
+        <v>0.10963014168314467</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7207217242215956</v>
+        <v>0.7233117032120606</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7423984368293571</v>
+        <v>0.763607352041648</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8460648212850838</v>
+        <v>0.8880256896147847</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.20760491935408404</v>
+        <v>0.21209435191457685</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.8819640210706736</v>
+        <v>3.2302500041210314</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02331839689726538</v>
+        <v>0.02181349979646545</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04658396995334244</v>
+        <v>0.06467795084714183</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.15977401136755706</v>
+        <v>0.12613257188370985</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7226541675780264</v>
+        <v>0.7026968508353921</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7449032357085023</v>
+        <v>0.7442990296609824</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8489150578985096</v>
+        <v>0.858313039654559</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.209774717940548</v>
+        <v>0.19521518765885987</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.920081082868244</v>
+        <v>2.910818166525391</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.023175890745272383</v>
+        <v>0.023322354493058577</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04755833186870942</v>
+        <v>0.06032809617807571</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.15996411532955337</v>
+        <v>0.10963014168314467</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7039058340676252</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.745088483744415</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8601525512170572</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.19586836440832162</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.9229298647980997</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.023252249230067853</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06162712390913665</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.10963014168314467</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>330.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6280409075152482</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6858992118188245</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6673975437842912</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5389285703086002</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.324242424242424</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1085548255427995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6018960483795056</v>
+        <v>0.259210458093897</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6598288965011245</v>
+        <v>0.3880640499924369</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6397826889064719</v>
+        <v>0.31865590877203587</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4967506462406783</v>
+        <v>0.23804788983829767</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.8212121212121213</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2333406769358353</v>
+        <v>0.17977809128866662</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5797441711319323</v>
+        <v>0.5347756622020261</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6462248232187856</v>
+        <v>0.5931925338185998</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6273375348360667</v>
+        <v>0.5586846021136443</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4942296634450828</v>
+        <v>0.4244171555541348</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.412121212121212</v>
+        <v>3.324242424242424</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9922978692160968</v>
+        <v>1.1085548255427995</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.49369447324740384</v>
+        <v>0.4939428492772532</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5563608693053579</v>
+        <v>0.5519616063404382</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5252454713286117</v>
+        <v>0.5150712971603442</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.3735745411428824</v>
+        <v>0.3638315040173962</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8454545454545452</v>
+        <v>3.8212121212121213</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.221785754974375</v>
+        <v>1.2333406769358353</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.613200582132975</v>
+        <v>0.6445790826512148</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.541233569933095</v>
+        <v>0.6151046123104942</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5634448624442991</v>
+        <v>0.6440080697135748</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.46308861020044606</v>
+        <v>0.6100181951150293</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.009090909090909</v>
+        <v>0.27575757575757576</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.7072816759965825</v>
+        <v>0.4475738739725524</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.616970947797734</v>
+        <v>0.6773692921950466</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.544420729451958</v>
+        <v>0.640188310365206</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.566781772162431</v>
+        <v>0.6720296967715241</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.46180027434025506</v>
+        <v>0.533282091767051</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.0272727272727273</v>
+        <v>1.009090909090909</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7648669800607208</v>
+        <v>1.7072816759965825</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.40407273890573636</v>
+        <v>0.6808479997951363</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.35441728707523246</v>
+        <v>0.6417492562999338</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3015227176930229</v>
+        <v>0.6704513026252923</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.24732426536205424</v>
+        <v>0.5318768450481616</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.3878787878787877</v>
+        <v>1.0272727272727273</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4527528790238908</v>
+        <v>1.7648669800607208</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3557919837621793</v>
+        <v>0.3885230945249146</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.29924795056640136</v>
+        <v>0.4208873472710504</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.24233942165650618</v>
+        <v>0.38493709226947853</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.16130395966673486</v>
+        <v>0.34720725710918554</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.4515151515151516</v>
+        <v>0.8272727272727273</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.72917416417297</v>
+        <v>0.3785853746251661</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.48766395891316516</v>
+        <v>0.4638275103826522</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.47092470115779833</v>
+        <v>0.4621515841228641</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.365296935929294</v>
+        <v>0.43915684043693465</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3430720160414873</v>
+        <v>0.30337156228666273</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3818181818181818</v>
+        <v>2.3878787878787877</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4375457271341137</v>
+        <v>1.4527528790238908</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.432249709869945</v>
+        <v>0.4195885463059659</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.44482527903795266</v>
+        <v>0.3964036507281609</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3355308489334723</v>
+        <v>0.35155923216146606</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2881657192182622</v>
+        <v>0.2184851812962462</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.084848484848485</v>
+        <v>2.4515151515151516</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3701377057057007</v>
+        <v>1.72917416417297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5411509637081559</v>
+        <v>0.5084427993183495</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5745037113109481</v>
+        <v>0.47720731397299215</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5562212067420096</v>
+        <v>0.37837341938405983</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.42855963240059747</v>
+        <v>0.35650584037098865</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.7666666666666666</v>
+        <v>1.3818181818181818</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.21168742813713</v>
+        <v>1.4375457271341137</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>330.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5247471695334576</v>
+        <v>0.40709433783960486</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5556613634114054</v>
+        <v>0.3694631847508494</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5328405054420887</v>
+        <v>0.26553792360169154</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4145153871954463</v>
+        <v>0.24982683591872656</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.084848484848485</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3701377057057007</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>330.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5356857645082247</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5376154094888436</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5173034118191213</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.41402795280756083</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.7666666666666666</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.21168742813713</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>330.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5252259102806158</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5311083856868852</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5073987016405581</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4070606481322879</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.7242424242424241</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1667975820967451</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.07878787878787878</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0030303030303030303</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4575757575757576</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06363636363636363</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.012121212121212121</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.29393939393939394</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.00909090909090909</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07575757575757576</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.012121212121212121</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.37575757575757573</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.45151515151515154</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07575757575757576</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.00909090909090909</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03636363636363636</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06060606060606061</v>
+        <v>0.0030303030303030303</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3424242424242424</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.09696969696969697</v>
+        <v>0.4575757575757576</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.45454545454545453</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7242424242424242</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.015151515151515152</v>
+        <v>0.012121212121212121</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.08787878787878788</v>
+        <v>0.29393939393939394</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.13333333333333333</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03939393939393939</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7242424242424242</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.015151515151515152</v>
+        <v>0.27575757575757576</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.00909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.09696969696969697</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.0696969696969697</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08484848484848485</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.17272727272727273</v>
+        <v>0.7242424242424242</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.15757575757575756</v>
+        <v>0.015151515151515152</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.02727272727272727</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.403030303030303</v>
+        <v>0.08787878787878788</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.23030303030303031</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.00909090909090909</v>
+        <v>0.03939393939393939</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.17272727272727273</v>
+        <v>0.7242424242424242</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.18787878787878787</v>
+        <v>0.015151515151515152</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.17272727272727273</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.09090909090909091</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.23333333333333334</v>
+        <v>0.0696969696969697</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.14242424242424243</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4393939393939394</v>
+        <v>0.17272727272727273</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.14545454545454545</v>
+        <v>0.8272727272727273</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.07575757575757576</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2727272727272727</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.21818181818181817</v>
+        <v>0.17272727272727273</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13333333333333333</v>
+        <v>0.15757575757575756</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.10303030303030303</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.43636363636363634</v>
+        <v>0.403030303030303</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.10909090909090909</v>
+        <v>0.23030303030303031</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.22121212121212122</v>
+        <v>0.17272727272727273</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.12727272727272726</v>
+        <v>0.18787878787878787</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.4</v>
+        <v>0.17272727272727273</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.16666666666666666</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.08484848484848485</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.14242424242424243</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,19 +5235,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.22727272727272727</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.10606060606060606</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4484848484848485</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.15151515151515152</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F54" t="n" s="113">
         <v>0.06666666666666667</v>
@@ -5250,6 +5256,84 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.10303030303030303</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.43636363636363634</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.22121212121212122</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.4</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.08484848484848485</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4484848484848485</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8618309977043521</v>
+        <v>0.8739476767899906</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8653431525177622</v>
+        <v>0.9834995021619362</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8575599631075359</v>
+        <v>0.9758502058464518</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.616354208550359</v>
+        <v>0.9520799169396815</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.426284059798054</v>
+        <v>59.604232054936304</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.012477731490888998</v>
+        <v>0.0022979433755872846</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6007575757575756</v>
+        <v>0.7707070707070707</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9611959220816139</v>
+        <v>1.2878319572057961</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6490173429028105</v>
+        <v>0.952184914798486</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8265138320625846</v>
+        <v>0.9752319945899237</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8312057403064123</v>
+        <v>0.9755068872630595</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7732270274940604</v>
+        <v>0.9521849147984861</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6214211084042754</v>
+        <v>0.952184914798486</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.924372083596327</v>
+        <v>39.82780374794088</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.0162076487844481</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.004353772302823616</v>
-      </c>
+        <v>0.0027109289427587387</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6351460096486261</v>
+        <v>0.952184914798486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8165677056441751</v>
+        <v>0.6208981531151812</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8244329154789096</v>
+        <v>0.9715834551620113</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7766064407723746</v>
+        <v>0.9447372857221674</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6101784222238642</v>
+        <v>0.9447372857221674</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.695828479055669</v>
+        <v>34.190766706554186</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.017815984807622406</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.011230611886178386</v>
-      </c>
+        <v>0.007302589168572116</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6628886761569951</v>
+        <v>0.9447372857221674</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8190789570934849</v>
+        <v>0.6400447139433514</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8194437879155089</v>
+        <v>0.9792364184685562</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7679996440625754</v>
+        <v>0.9593175502983909</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6020397531936529</v>
+        <v>0.9593175502983908</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.538441399801023</v>
+        <v>47.16124802388415</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.017264068881888462</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010289777210084386</v>
-      </c>
+        <v>0.006221157489006877</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6351460096486261</v>
+        <v>0.9593175502983908</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8335287491343263</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8373256080681049</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7827572661207114</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6317775503796436</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.147249042238056</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.015658305609059075</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.005157098458178755</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6628886761569951</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>330.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9713313833285266</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9838614133365662</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.972221215057051</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9634903214166793</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.27575757575757576</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4475738739725524</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>330.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8335724754538151</v>
+        <v>0.9879981732180018</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8394555270130052</v>
+        <v>0.9863845870652945</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7784945988797357</v>
+        <v>0.977896117974284</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7024764000495973</v>
+        <v>0.9622477344209286</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.324242424242424</v>
+        <v>1.009090909090909</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1085548255427995</v>
+        <v>1.7072816759965825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>330.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8613445638731</v>
+        <v>0.9870217779001095</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.849446559002672</v>
+        <v>0.9814449559209869</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7863574627073124</v>
+        <v>0.9657144376829017</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.728699517122526</v>
+        <v>0.9570670170867455</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8212121212121213</v>
+        <v>1.0272727272727273</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2333406769358353</v>
+        <v>1.7648669800607208</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>330.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8414558059724814</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8566791457109825</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8004496948937531</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7336529205198529</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.412121212121212</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9922978692160968</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>330.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8376401535764173</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8302520731929286</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7608729284300705</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6894122922589996</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8454545454545452</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.221785754974375</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7242424242424242</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.27575757575757576</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7242424242424242</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.015151515151515152</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.08787878787878788</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03939393939393939</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.03333333333333333</v>
+        <v>0.7242424242424242</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.07878787878787878</v>
+        <v>0.015151515151515152</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0030303030303030303</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.36363636363636365</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4575757575757576</v>
+        <v>0.0696969696969697</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.06363636363636363</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.012121212121212121</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.29393939393939394</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.00909090909090909</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.012121212121212121</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.37575757575757573</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.45151515151515154</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.00909090909090909</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3424242424242424</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.09696969696969697</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,28 +5873,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8332467729480713</v>
+        <v>0.7553676996320388</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8405929613534586</v>
+        <v>0.8794856192188123</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.725019715539025</v>
+        <v>0.834731565875821</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.725019715539025</v>
+        <v>0.7086746467596742</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>5.273248712795766</v>
+        <v>7.297764910028896</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.017793106879979797</v>
+        <v>0.012725788894665016</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.41969696969697</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4784387247731043</v>
+        <v>1.083375547978584</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.725019715539025</v>
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.8332467729480713</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8405929613534586</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.725019715539025</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.725019715539025</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5256535879202886</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.725019715539025</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.725019715539025</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.273248712795766</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.017793106879979797</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.725019715539025</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5256535879202886</v>
+        <v>0.42656145933545475</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.725019715539025</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5256535879202886</v>
-      </c>
+        <v>0.786996743999655</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6488001908540888</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6488001908540888</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.694763914774994</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.02085538751830757</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.725019715539025</v>
+        <v>0.6488001908540888</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5370655458869036</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8585804156810739</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7522040338859091</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7522040338859091</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>6.071156408894704</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.01762113467434426</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7522040338859091</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>330.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9153028104243434</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9287140882798712</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7907823036270203</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.725019715539025</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.3878787878787877</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4527528790238908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>330.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9410091188251286</v>
+        <v>0.7978890555050476</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9287140882798712</v>
+        <v>0.8915846705418023</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7907823036270203</v>
+        <v>0.808559598276717</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7250197155390249</v>
+        <v>0.7489844071543796</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8272727272727273</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3785853746251661</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>330.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9203369632363153</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9198878942949512</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8697920802816356</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7708855650981232</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.3878787878787877</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.4527528790238908</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>330.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9316790507941216</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8814900937528611</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7820371693973209</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7399698039678797</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.4515151515151516</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.72917416417297</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.17272727272727273</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8272727272727273</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.17272727272727273</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.15757575757575756</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.02727272727272727</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.403030303030303</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.23030303030303031</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.00909090909090909</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.17272727272727273</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.18787878787878787</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.17272727272727273</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.23333333333333334</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.14242424242424243</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8854180271960759</v>
+        <v>0.6860063844961297</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8857695661811957</v>
+        <v>0.8216125916010037</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7949608440916444</v>
+        <v>0.7604219604963399</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7949608440916442</v>
+        <v>0.6055629728889139</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.754234458972897</v>
+        <v>4.605776825701265</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01259069466526199</v>
+        <v>0.015088649908770561</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.7454545454545454</v>
+        <v>2.7040404040404042</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.126657079922349</v>
+        <v>0.7547779844828667</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7949608440916444</v>
+        <v>0.5762064473993517</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7949608440916444</v>
+        <v>0.808760044366776</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7949608440916444</v>
+        <v>0.8114968911128926</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6319627436388997</v>
+        <v>0.6827890352535666</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7949608440916444</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7949608440916444</v>
-      </c>
+        <v>0.6827890352535664</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.30495229444141</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.020833125424890672</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7949608440916444</v>
+        <v>0.6827890352535665</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6319627436388997</v>
+        <v>0.2825050916496945</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7949608440916444</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6319627436388997</v>
-      </c>
+        <v>0.7311306819611842</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5762064473993518</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5762064473993518</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.719278969032954</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.01868462260815832</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7949608440916444</v>
+        <v>0.5762064473993517</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.29968211394228383</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7160503127508517</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5576934360138239</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5576934360138237</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.521750665365453</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.020547482394058483</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5576934360138236</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>330.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9493775244514897</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9473544331694564</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8446666761896506</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7949608440916442</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.7666666666666666</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.21168742813713</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>330.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9452927961410748</v>
+        <v>0.6662757004318757</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9473544331694564</v>
+        <v>0.8285270118705743</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8446666761896506</v>
+        <v>0.6752074380255768</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7949608440916441</v>
+        <v>0.6184524948164096</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.7242424242424241</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.1667975820967451</v>
+        <v>0.17977809128866662</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>330.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9057530470777079</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8699097185845553</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7778891106385214</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7006591623204474</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.324242424242424</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1085548255427995</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>330.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9247041713553926</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8770977455970709</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7928255737119425</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.706489535140755</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.8212121212121213</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2333406769358353</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.22121212121212122</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.4</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.08484848484848485</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4484848484848485</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.07878787878787878</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0030303030303030303</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4575757575757576</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.06363636363636363</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.012121212121212121</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.29393939393939394</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9752319945899237</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9755068872630595</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9521849147984861</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.952184914798486</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>39.82780374794088</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0027109289427587387</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.018181818181818</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.7152019288734706</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.952184914798486</v>
+      <c r="A6" t="n" s="491">
+        <v>0.503557798498595</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5039922691510292</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.33689148709480154</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.33689148709480143</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.0160976085763664</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05458546902655989</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1479244297661326</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3368914870948015</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9521849147984861</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9521849147984861</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9066561119698003</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9521849147984861</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9521849147984861</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9521849147984861</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.3368914870948015</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.3368914870948015</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.11349587407694717</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.3368914870948015</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.3368914870948015</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.3368914870948015</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9066561119698003</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9521849147984861</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9066561119698003</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9521849147984861</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.11349587407694717</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.3368914870948015</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.11349587407694717</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.3368914870948015</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>330.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9875692575921405</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9879739153435394</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9640645794676531</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9521849147984861</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.009090909090909</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.7072816759965825</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8272031708223503</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.81758531270284</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.47454576237268664</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.33689148709480154</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.3818181818181818</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4375457271341137</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>330.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9883719170848309</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9879739153435395</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9640645794676532</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9521849147984861</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.0272727272727273</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7648669800607208</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8077337564217948</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.81758531270284</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.4745457623726863</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.33689148709480143</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.084848484848485</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3701377057057007</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7242424242424242</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.015151515151515152</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4393939393939394</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.08787878787878788</v>
-      </c>
-      <c r="F23" t="n" s="572">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="C24" t="n" s="570">
         <v>0.13333333333333333</v>
       </c>
-      <c r="G23" t="n" s="573">
-        <v>0.03939393939393939</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7242424242424242</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.015151515151515152</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.00909090909090909</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.09696969696969697</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.0696969696969697</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.08484848484848485</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="D24" t="n" s="571">
+        <v>0.10303030303030303</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.43636363636363634</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.503557798498595</v>
+        <v>0.8854180271960759</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5039922691510292</v>
+        <v>0.8857695661811957</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.33689148709480154</v>
+        <v>0.7949608440916444</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.33689148709480143</v>
+        <v>0.7949608440916442</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.0160976085763664</v>
+        <v>7.754234458972897</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05458546902655989</v>
+        <v>0.01259069466526199</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.7333333333333334</v>
+        <v>1.7454545454545454</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1479244297661326</v>
+        <v>1.126657079922349</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3368914870948015</v>
+        <v>0.7949608440916444</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.3368914870948015</v>
+        <v>0.7949608440916444</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.3368914870948015</v>
+        <v>0.7949608440916444</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.11349587407694717</v>
+        <v>0.6319627436388997</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.3368914870948015</v>
+        <v>0.7949608440916444</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.3368914870948015</v>
+        <v>0.7949608440916444</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.3368914870948015</v>
+        <v>0.7949608440916444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.11349587407694717</v>
+        <v>0.6319627436388997</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.3368914870948015</v>
+        <v>0.7949608440916444</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.11349587407694717</v>
+        <v>0.6319627436388997</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.3368914870948015</v>
+        <v>0.7949608440916444</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>330.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8272031708223503</v>
+        <v>0.9493775244514897</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.81758531270284</v>
+        <v>0.9473544331694564</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.47454576237268664</v>
+        <v>0.8446666761896506</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.33689148709480154</v>
+        <v>0.7949608440916442</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.3818181818181818</v>
+        <v>1.7666666666666666</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4375457271341137</v>
+        <v>1.21168742813713</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>330.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8077337564217948</v>
+        <v>0.9452927961410748</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.81758531270284</v>
+        <v>0.9473544331694564</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.4745457623726863</v>
+        <v>0.8446666761896506</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.33689148709480143</v>
+        <v>0.7949608440916441</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.084848484848485</v>
+        <v>1.7242424242424241</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3701377057057007</v>
+        <v>1.1667975820967451</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4393939393939394</v>
+        <v>0.22121212121212122</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.14545454545454545</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.07575757575757576</v>
+        <v>0.4</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.2727272727272727</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.06666666666666667</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.21818181818181817</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.13333333333333333</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.10303030303030303</v>
+        <v>0.4484848484848485</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.43636363636363634</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.10909090909090909</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7815714775564807</v>
+        <v>0.7583436291293717</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7962045405796521</v>
+        <v>0.7861402370567817</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8829171040077641</v>
+        <v>0.8812738742390873</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.28093148715891597</v>
+        <v>0.2687899815105525</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.906880667725782</v>
+        <v>3.6759614161992173</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.01842903604072282</v>
+        <v>0.018861136131528157</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.33969696969697</v>
+        <v>1.7381818181818183</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7797006083059145</v>
+        <v>0.7051243376762075</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.20817612054278337</v>
+        <v>0.20786083661851823</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7509281345766426</v>
+        <v>0.7394885158321833</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7609167853905783</v>
+        <v>0.7561888103663985</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8562500075655667</v>
+        <v>0.8525552708632186</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.26124411771044853</v>
+        <v>0.2562926612657958</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.182644112568294</v>
+        <v>3.1015344763412873</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.020959233073489833</v>
+        <v>0.020906674624455474</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.041445491171887526</v>
+        <v>0.04364848833552048</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.20372197573413053</v>
+        <v>0.2080184785806508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7543656650577696</v>
+        <v>0.710724385271012</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7653024918930568</v>
+        <v>0.7524636163148366</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8582744473484905</v>
+        <v>0.8503174056516924</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.26595350073481794</v>
+        <v>0.2524799084291442</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.2608036534599076</v>
+        <v>3.0398101689644146</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.0205629513450544</v>
+        <v>0.022853347203581568</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03986020594750309</v>
+        <v>0.044108030613133516</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2072335621694905</v>
+        <v>0.2080184785806508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7568008364982027</v>
+        <v>0.7106145581226851</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7656440448112454</v>
+        <v>0.7517924327792809</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8563594272724622</v>
+        <v>0.8520567441965378</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2663250858084028</v>
+        <v>0.25180104143449156</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.2670133950493425</v>
+        <v>3.0288860295332882</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02050110496585985</v>
+        <v>0.022919983047735442</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.0400183510361676</v>
+        <v>0.04487085705001918</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2080184785806508</v>
+        <v>0.20723356216949046</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7662415262605997</v>
+        <v>0.7635658175734809</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7778615630019097</v>
+        <v>0.789213000992427</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8631647275412826</v>
+        <v>0.8806909978859563</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2800977506728061</v>
+        <v>0.2937922713375466</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.501697290724149</v>
+        <v>3.74412560882881</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.019662168777310578</v>
+        <v>0.019253354698742817</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03871122621036168</v>
+        <v>0.059525734442136095</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2129197110110706</v>
+        <v>0.21023204714912377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7595671905856441</v>
+        <v>0.7336682103680299</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7752658111065287</v>
+        <v>0.757709563568901</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8512250165955452</v>
+        <v>0.8614634114171417</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2770910865046546</v>
+        <v>0.2578713901903629</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.4497012444956496</v>
+        <v>3.127278049971128</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.020331254933574194</v>
+        <v>0.02044819026132121</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04394801056848383</v>
+        <v>0.06685853904997807</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.20022828931609096</v>
+        <v>0.20311260130242315</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7645969150081888</v>
+        <v>0.7422855740157213</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7807338323281594</v>
+        <v>0.7643191670411094</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8554382877876764</v>
+        <v>0.8640894265145385</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2834775479130024</v>
+        <v>0.2648876434502081</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.560667113481117</v>
+        <v>3.2430264160447377</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.019967338773793083</v>
+        <v>0.019628414130213143</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04327765485287805</v>
+        <v>0.06476986514792611</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21111569116703605</v>
+        <v>0.20723356216949046</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7596305201030027</v>
+        <v>0.7489233918207403</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7839331680760685</v>
+        <v>0.7815946820690561</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8364728841841306</v>
+        <v>0.8880824722385576</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2873092216465181</v>
+        <v>0.2845015209644442</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.628197632629057</v>
+        <v>3.578643091081618</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.02035055357280904</v>
+        <v>0.0195863047499736</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03600719326880602</v>
+        <v>0.07246200290013907</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2129197110110706</v>
+        <v>0.20373987575145092</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7601880690993092</v>
+        <v>0.7573209595229397</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7832194929350595</v>
+        <v>0.789122140067215</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8361642554322561</v>
+        <v>0.8890421557380312</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.28644827482300034</v>
+        <v>0.2936789805917589</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.61296088628685</v>
+        <v>3.742081507839367</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.020305169016617493</v>
+        <v>0.01874460997023019</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03625888092819636</v>
+        <v>0.06971092136187607</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.21111569116703605</v>
+        <v>0.20842802730508925</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7776973922677324</v>
+        <v>0.7290052356139499</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7948647555291699</v>
+        <v>0.7626341249051268</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8897757564337546</v>
+        <v>0.8484112984471239</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3009617909787432</v>
+        <v>0.26307462199132886</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.874832711363739</v>
+        <v>3.212905497053055</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.01908996128089267</v>
+        <v>0.02079770515837986</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.0491904654669478</v>
+        <v>0.06609712571696853</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2129197110110706</v>
+        <v>0.19279306824021814</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7790284517054347</v>
+        <v>0.7352037078787668</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.794433819840521</v>
+        <v>0.7685539895574534</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8898298978810174</v>
+        <v>0.8528187454552429</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3004064947967654</v>
+        <v>0.26951977545044375</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.864613426314565</v>
+        <v>3.3206620761701866</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.018861332434129414</v>
+        <v>0.020393912059701876</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.049377863011035736</v>
+        <v>0.06556427047495392</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.2099801403868179</v>
+        <v>0.2080184785806508</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6648157550398569</v>
+        <v>0.7033118558296216</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7133189635900639</v>
+        <v>0.6616734422637292</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6890756798403634</v>
+        <v>0.6924866076811153</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.573266223565759</v>
+        <v>0.6689902009309501</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.324242424242424</v>
+        <v>0.27575757575757576</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1085548255427995</v>
+        <v>0.4475738739725524</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.634500082234879</v>
+        <v>0.7344381422907033</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6847773428714016</v>
+        <v>0.68514730861526</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6580723866306425</v>
+        <v>0.7190320748684601</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5246357542846011</v>
+        <v>0.5871812865448528</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.8212121212121213</v>
+        <v>1.009090909090909</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2333406769358353</v>
+        <v>1.7072816759965825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6266112070108218</v>
+        <v>0.7406897633518225</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6825253195851039</v>
+        <v>0.6893268696268614</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6587853516447355</v>
+        <v>0.7197620543911112</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5394921835418226</v>
+        <v>0.5895720534522628</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.412121212121212</v>
+        <v>1.0272727272727273</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9922978692160968</v>
+        <v>1.7648669800607208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5472773176140624</v>
+        <v>0.283412570197194</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.5990549000395031</v>
+        <v>0.43080066535646705</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5630187823236549</v>
+        <v>0.35142412638828635</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.42288607141637663</v>
+        <v>0.25971511013706183</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8454545454545452</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.221785754974375</v>
+        <v>0.17977809128866662</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5966615840497189</v>
+        <v>0.5821638265862585</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6172770467350918</v>
+        <v>0.6519537270426581</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5945938763365365</v>
+        <v>0.611726913362831</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4818233972670092</v>
+        <v>0.46319863293362584</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.7666666666666666</v>
+        <v>3.324242424242424</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.21168742813713</v>
+        <v>1.1085548255427995</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5563234316138855</v>
+        <v>0.5352788414954561</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5785713482798583</v>
+        <v>0.6087569612500089</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5501838877303564</v>
+        <v>0.565334359876078</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4395822498156904</v>
+        <v>0.39241372415758347</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.7242424242424241</v>
+        <v>3.8212121212121213</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.1667975820967451</v>
+        <v>1.2333406769358353</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6447723154466254</v>
+        <v>0.5301175616443564</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5553491601813847</v>
+        <v>0.4880007624797751</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5747533872411179</v>
+        <v>0.369196975871617</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.4866499195290877</v>
+        <v>0.35909571798020745</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.009090909090909</v>
+        <v>1.3818181818181818</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.7072816759965825</v>
+        <v>1.4375457271341137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6508186311093752</v>
+        <v>0.46792409775484484</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5605670024270939</v>
+        <v>0.43149815925114626</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5802940267264002</v>
+        <v>0.31186084774693323</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4879872356933563</v>
+        <v>0.29574799359027204</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.0272727272727273</v>
+        <v>2.084848484848485</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7648669800607208</v>
+        <v>1.3701377057057007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4973356445798758</v>
+        <v>0.6152381392577358</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.47260658993402527</v>
+        <v>0.619919138616734</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3552100221653064</v>
+        <v>0.5969469122677729</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3393367678313039</v>
+        <v>0.4902241993054469</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.3818181818181818</v>
+        <v>1.7666666666666666</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4375457271341137</v>
+        <v>1.21168742813713</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>330.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.4748302542877531</v>
+        <v>0.5743837868359887</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.4759720101877011</v>
+        <v>0.5802384466348125</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.35747301721772584</v>
+        <v>0.551466023054316</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.32178489507985</v>
+        <v>0.44687845028806333</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.084848484848485</v>
+        <v>1.7242424242424241</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3701377057057007</v>
+        <v>1.1667975820967451</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.03333333333333333</v>
+        <v>0.7242424242424242</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.07878787878787878</v>
+        <v>0.27575757575757576</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.0030303030303030303</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.36363636363636365</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4575757575757576</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.06363636363636363</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.03333333333333333</v>
+        <v>0.7242424242424242</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.012121212121212121</v>
+        <v>0.015151515151515152</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.05454545454545454</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.29393939393939394</v>
+        <v>0.08787878787878788</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.21212121212121213</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.3939393939393939</v>
+        <v>0.03939393939393939</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
+        <v>0.7242424242424242</v>
+      </c>
+      <c r="C41" t="n" s="798">
+        <v>0.015151515151515152</v>
+      </c>
+      <c r="D41" t="n" s="799">
         <v>0.00909090909090909</v>
       </c>
-      <c r="C41" t="n" s="798">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="D41" t="n" s="799">
-        <v>0.012121212121212121</v>
-      </c>
       <c r="E41" t="n" s="800">
-        <v>0.37575757575757573</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.45151515151515154</v>
+        <v>0.0696969696969697</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.07575757575757576</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.00909090909090909</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03636363636363636</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06060606060606061</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3424242424242424</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.09696969696969697</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.45454545454545453</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.22121212121212122</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.12727272727272726</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.4</v>
+        <v>0.0030303030303030303</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.16666666666666666</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.08484848484848485</v>
+        <v>0.4575757575757576</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.22727272727272727</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.10606060606060606</v>
+        <v>0.012121212121212121</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4484848484848485</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.15151515151515152</v>
+        <v>0.29393939393939394</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.06666666666666667</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7242424242424242</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.015151515151515152</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.08787878787878788</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.03939393939393939</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7242424242424242</v>
+        <v>0.21818181818181817</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.015151515151515152</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.00909090909090909</v>
+        <v>0.10303030303030303</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.09696969696969697</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.0696969696969697</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.08484848484848485</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4393939393939394</v>
+        <v>0.22121212121212122</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.14545454545454545</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.07575757575757576</v>
+        <v>0.4</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.2727272727272727</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.06666666666666667</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.21818181818181817</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.13333333333333333</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.10303030303030303</v>
+        <v>0.4484848484848485</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.43636363636363634</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.10909090909090909</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
